--- a/proj-result 2.xlsx
+++ b/proj-result 2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://iselpt-my.sharepoint.com/personal/a45881_alunos_isel_pt/Documents/Mestrado/Semestre 1/IASC/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="172" documentId="13_ncr:1_{DB835943-7612-4B80-BA1E-15DAA7881A52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B08A0167-3338-42A9-A83D-4879BDF6B18A}"/>
+  <xr:revisionPtr revIDLastSave="240" documentId="13_ncr:1_{DB835943-7612-4B80-BA1E-15DAA7881A52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A736DECD-E285-4C95-A822-7FA9AD485A4D}"/>
   <bookViews>
-    <workbookView xWindow="-4644" yWindow="3756" windowWidth="10140" windowHeight="6000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="3756" windowWidth="10140" windowHeight="6000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Folha1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="25">
   <si>
     <t>r = 0.05</t>
   </si>
@@ -783,8 +783,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="I34" sqref="I34"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G39" sqref="G39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1381,126 +1381,226 @@
       <c r="A41" s="12">
         <v>1</v>
       </c>
-      <c r="B41" s="12"/>
-      <c r="C41" s="12"/>
-      <c r="D41" s="12"/>
-      <c r="E41" s="12"/>
-      <c r="F41" s="12"/>
+      <c r="B41" s="12">
+        <v>49</v>
+      </c>
+      <c r="C41" s="12">
+        <v>10</v>
+      </c>
+      <c r="D41" s="12">
+        <v>10</v>
+      </c>
+      <c r="E41" s="12">
+        <v>7</v>
+      </c>
+      <c r="F41" s="12" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="42" spans="1:6">
       <c r="A42" s="12">
         <f>A41+1</f>
         <v>2</v>
       </c>
-      <c r="B42" s="12"/>
-      <c r="C42" s="12"/>
-      <c r="D42" s="12"/>
-      <c r="E42" s="12"/>
-      <c r="F42" s="12"/>
+      <c r="B42" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C42" s="12">
+        <v>21</v>
+      </c>
+      <c r="D42" s="12">
+        <v>15</v>
+      </c>
+      <c r="E42" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="F42" s="12" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="43" spans="1:6">
       <c r="A43" s="12">
         <v>3</v>
       </c>
-      <c r="B43" s="12"/>
-      <c r="C43" s="12"/>
-      <c r="D43" s="12"/>
-      <c r="E43" s="12"/>
-      <c r="F43" s="12"/>
+      <c r="B43" s="12">
+        <v>32</v>
+      </c>
+      <c r="C43" s="12">
+        <v>13</v>
+      </c>
+      <c r="D43" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="E43" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="F43" s="12" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="44" spans="1:6">
       <c r="A44" s="12">
         <v>4</v>
       </c>
-      <c r="B44" s="12"/>
-      <c r="C44" s="12"/>
-      <c r="D44" s="12"/>
-      <c r="E44" s="12"/>
-      <c r="F44" s="12"/>
+      <c r="B44" s="12">
+        <v>28</v>
+      </c>
+      <c r="C44" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D44" s="12">
+        <v>31</v>
+      </c>
+      <c r="E44" s="12">
+        <v>5</v>
+      </c>
+      <c r="F44" s="12" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="45" spans="1:6">
       <c r="A45" s="12">
         <v>5</v>
       </c>
-      <c r="B45" s="12"/>
-      <c r="C45" s="12"/>
-      <c r="D45" s="12"/>
-      <c r="E45" s="12"/>
-      <c r="F45" s="12"/>
+      <c r="B45" s="12">
+        <v>54</v>
+      </c>
+      <c r="C45" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D45" s="12">
+        <v>7</v>
+      </c>
+      <c r="E45" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="F45" s="12" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="46" spans="1:6">
       <c r="A46" s="12">
         <v>6</v>
       </c>
-      <c r="B46" s="12"/>
-      <c r="C46" s="12"/>
-      <c r="D46" s="12"/>
-      <c r="E46" s="12"/>
-      <c r="F46" s="12"/>
+      <c r="B46" s="12">
+        <v>21</v>
+      </c>
+      <c r="C46" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D46" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="E46" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="F46" s="12" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="47" spans="1:6">
       <c r="A47" s="12">
         <v>7</v>
       </c>
-      <c r="B47" s="12"/>
-      <c r="C47" s="12"/>
-      <c r="D47" s="12"/>
-      <c r="E47" s="12"/>
-      <c r="F47" s="12"/>
+      <c r="B47" s="12">
+        <v>39</v>
+      </c>
+      <c r="C47" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D47" s="12">
+        <v>15</v>
+      </c>
+      <c r="E47" s="12">
+        <v>11</v>
+      </c>
+      <c r="F47" s="12" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="48" spans="1:6">
       <c r="A48" s="12">
         <v>8</v>
       </c>
-      <c r="B48" s="12"/>
-      <c r="C48" s="12"/>
-      <c r="D48" s="12"/>
-      <c r="E48" s="12"/>
-      <c r="F48" s="12"/>
+      <c r="B48" s="12">
+        <v>38</v>
+      </c>
+      <c r="C48" s="12">
+        <v>12</v>
+      </c>
+      <c r="D48" s="12">
+        <v>22</v>
+      </c>
+      <c r="E48" s="12">
+        <v>7</v>
+      </c>
+      <c r="F48" s="12" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="49" spans="1:6">
       <c r="A49" s="12">
         <v>9</v>
       </c>
-      <c r="B49" s="12"/>
-      <c r="C49" s="12"/>
-      <c r="D49" s="12"/>
-      <c r="E49" s="12"/>
-      <c r="F49" s="12"/>
+      <c r="B49" s="12">
+        <v>27</v>
+      </c>
+      <c r="C49" s="12">
+        <v>11</v>
+      </c>
+      <c r="D49" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="E49" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="F49" s="12">
+        <v>6</v>
+      </c>
     </row>
     <row r="50" spans="1:6" ht="15" thickBot="1">
       <c r="A50" s="11">
         <v>10</v>
       </c>
-      <c r="B50" s="11"/>
-      <c r="C50" s="11"/>
-      <c r="D50" s="11"/>
-      <c r="E50" s="11"/>
-      <c r="F50" s="11"/>
+      <c r="B50" s="11">
+        <v>42</v>
+      </c>
+      <c r="C50" s="11">
+        <v>7</v>
+      </c>
+      <c r="D50" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="E50" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="F50" s="11" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="51" spans="1:6" ht="15" thickBot="1">
       <c r="A51" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B51" s="6" t="e">
+      <c r="B51" s="6">
         <f>AVERAGE(B41:B50)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C51" s="6" t="e">
+        <v>36.666666666666664</v>
+      </c>
+      <c r="C51" s="6">
         <f>AVERAGE(C41:C50)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D51" s="6" t="e">
+        <v>12.333333333333334</v>
+      </c>
+      <c r="D51" s="6">
         <f t="shared" ref="D51" si="2">AVERAGE(D41:D50)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E51" s="6" t="e">
+        <v>16.666666666666668</v>
+      </c>
+      <c r="E51" s="6">
         <f t="shared" ref="E51" si="3">AVERAGE(E41:E50)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F51" s="13" t="e">
+        <v>7.5</v>
+      </c>
+      <c r="F51" s="13">
         <f t="shared" ref="F51" si="4">AVERAGE(F41:F50)</f>
-        <v>#DIV/0!</v>
+        <v>6</v>
       </c>
     </row>
     <row r="52" spans="1:6">

--- a/proj-result 2.xlsx
+++ b/proj-result 2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://iselpt-my.sharepoint.com/personal/a45881_alunos_isel_pt/Documents/Mestrado/Semestre 1/IASC/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="240" documentId="13_ncr:1_{DB835943-7612-4B80-BA1E-15DAA7881A52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A736DECD-E285-4C95-A822-7FA9AD485A4D}"/>
+  <xr:revisionPtr revIDLastSave="299" documentId="13_ncr:1_{DB835943-7612-4B80-BA1E-15DAA7881A52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A4809C1F-DEE7-46AD-A0FF-5B1E01424E78}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="3756" windowWidth="10140" windowHeight="6000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-4572" yWindow="3408" windowWidth="10140" windowHeight="6000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Folha1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="25">
   <si>
     <t>r = 0.05</t>
   </si>
@@ -783,8 +783,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G39" sqref="G39"/>
+    <sheetView tabSelected="1" topLeftCell="A39" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1131,16 +1131,16 @@
         <v>1</v>
       </c>
       <c r="B27" s="12">
-        <v>62</v>
+        <v>135</v>
       </c>
       <c r="C27" s="12">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="D27" s="12">
-        <v>13</v>
-      </c>
-      <c r="E27" s="12" t="s">
-        <v>24</v>
+        <v>31</v>
+      </c>
+      <c r="E27" s="12">
+        <v>10</v>
       </c>
       <c r="F27" s="12" t="s">
         <v>24</v>
@@ -1152,16 +1152,16 @@
         <v>2</v>
       </c>
       <c r="B28" s="12">
-        <v>154</v>
+        <v>72</v>
       </c>
       <c r="C28" s="12">
-        <v>236</v>
+        <v>10</v>
       </c>
       <c r="D28" s="12">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E28" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="F28" s="12" t="s">
         <v>24</v>
@@ -1172,16 +1172,16 @@
         <v>3</v>
       </c>
       <c r="B29" s="12">
-        <v>54</v>
+        <v>265</v>
       </c>
       <c r="C29" s="12">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="D29" s="12">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="E29" s="12">
-        <v>6</v>
+        <v>75</v>
       </c>
       <c r="F29" s="12" t="s">
         <v>24</v>
@@ -1192,16 +1192,16 @@
         <v>4</v>
       </c>
       <c r="B30" s="12">
-        <v>77</v>
+        <v>152</v>
       </c>
       <c r="C30" s="12">
-        <v>15</v>
-      </c>
-      <c r="D30" s="12" t="s">
-        <v>24</v>
+        <v>27</v>
+      </c>
+      <c r="D30" s="12">
+        <v>29</v>
       </c>
       <c r="E30" s="12">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F30" s="12" t="s">
         <v>24</v>
@@ -1212,19 +1212,19 @@
         <v>5</v>
       </c>
       <c r="B31" s="12">
-        <v>132</v>
+        <v>80</v>
       </c>
       <c r="C31" s="12">
+        <v>18</v>
+      </c>
+      <c r="D31" s="12">
         <v>13</v>
       </c>
-      <c r="D31" s="12" t="s">
-        <v>24</v>
-      </c>
       <c r="E31" s="12">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="F31" s="12">
-        <v>48</v>
+        <v>119</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1232,19 +1232,19 @@
         <v>6</v>
       </c>
       <c r="B32" s="12">
-        <v>96</v>
-      </c>
-      <c r="C32" s="12">
-        <v>37</v>
+        <v>217</v>
+      </c>
+      <c r="C32" s="12" t="s">
+        <v>24</v>
       </c>
       <c r="D32" s="12">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="E32" s="12">
-        <v>10</v>
-      </c>
-      <c r="F32" s="12">
-        <v>803</v>
+        <v>21</v>
+      </c>
+      <c r="F32" s="12" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1252,19 +1252,19 @@
         <v>7</v>
       </c>
       <c r="B33" s="12">
-        <v>133</v>
-      </c>
-      <c r="C33" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="D33" s="12" t="s">
-        <v>24</v>
+        <v>127</v>
+      </c>
+      <c r="C33" s="12">
+        <v>26</v>
+      </c>
+      <c r="D33" s="12">
+        <v>9</v>
       </c>
       <c r="E33" s="12">
-        <v>39</v>
-      </c>
-      <c r="F33" s="12" t="s">
-        <v>24</v>
+        <v>7</v>
+      </c>
+      <c r="F33" s="12">
+        <v>11</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1272,39 +1272,39 @@
         <v>8</v>
       </c>
       <c r="B34" s="12">
-        <v>42</v>
-      </c>
-      <c r="C34" s="12">
-        <v>31</v>
+        <v>90</v>
+      </c>
+      <c r="C34" s="12" t="s">
+        <v>24</v>
       </c>
       <c r="D34" s="12">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E34" s="12">
-        <v>16</v>
-      </c>
-      <c r="F34" s="12">
-        <v>646</v>
+        <v>7</v>
+      </c>
+      <c r="F34" s="12" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="15" thickBot="1">
       <c r="A35" s="12">
         <v>9</v>
       </c>
-      <c r="B35" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="C35" s="12">
-        <v>23</v>
-      </c>
-      <c r="D35" s="12" t="s">
-        <v>24</v>
+      <c r="B35" s="12">
+        <v>568</v>
+      </c>
+      <c r="C35" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D35" s="12">
+        <v>15</v>
       </c>
       <c r="E35" s="12">
         <v>5</v>
       </c>
-      <c r="F35" s="12" t="s">
-        <v>24</v>
+      <c r="F35" s="12">
+        <v>8</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="15" thickBot="1">
@@ -1315,13 +1315,13 @@
         <v>24</v>
       </c>
       <c r="C36" s="11">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="D36" s="11">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="E36" s="11">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F36" s="11" t="s">
         <v>24</v>
@@ -1333,23 +1333,23 @@
       </c>
       <c r="B37" s="6">
         <f>AVERAGE(B27:B36)</f>
-        <v>93.75</v>
+        <v>189.55555555555554</v>
       </c>
       <c r="C37" s="6">
         <f t="shared" ref="C37:F37" si="1">AVERAGE(C27:C36)</f>
-        <v>46.888888888888886</v>
+        <v>19.142857142857142</v>
       </c>
       <c r="D37" s="6">
         <f t="shared" si="1"/>
-        <v>12.166666666666666</v>
+        <v>16.3</v>
       </c>
       <c r="E37" s="6">
         <f t="shared" si="1"/>
-        <v>14.444444444444445</v>
+        <v>18.5</v>
       </c>
       <c r="F37" s="13">
         <f t="shared" si="1"/>
-        <v>499</v>
+        <v>46</v>
       </c>
     </row>
     <row r="39" spans="1:6">

--- a/proj-result 2.xlsx
+++ b/proj-result 2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://iselpt-my.sharepoint.com/personal/a45881_alunos_isel_pt/Documents/Mestrado/Semestre 1/IASC/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="299" documentId="13_ncr:1_{DB835943-7612-4B80-BA1E-15DAA7881A52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A4809C1F-DEE7-46AD-A0FF-5B1E01424E78}"/>
+  <xr:revisionPtr revIDLastSave="350" documentId="13_ncr:1_{DB835943-7612-4B80-BA1E-15DAA7881A52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BB9DA277-8DFB-4B85-A89F-1F4CAD96CA3B}"/>
   <bookViews>
-    <workbookView xWindow="-4572" yWindow="3408" windowWidth="10140" windowHeight="6000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-4740" yWindow="2832" windowWidth="10140" windowHeight="6000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Folha1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="25">
   <si>
     <t>r = 0.05</t>
   </si>
@@ -783,8 +783,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A39" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G29" sqref="G29"/>
+    <sheetView tabSelected="1" topLeftCell="A45" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G63" sqref="G63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1648,126 +1648,226 @@
       <c r="A58" s="12">
         <v>1</v>
       </c>
-      <c r="B58" s="12"/>
-      <c r="C58" s="12"/>
-      <c r="D58" s="12"/>
-      <c r="E58" s="12"/>
-      <c r="F58" s="12"/>
+      <c r="B58" s="12">
+        <v>126</v>
+      </c>
+      <c r="C58" s="12">
+        <v>16</v>
+      </c>
+      <c r="D58" s="12">
+        <v>8</v>
+      </c>
+      <c r="E58" s="12">
+        <v>50</v>
+      </c>
+      <c r="F58" s="12" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="59" spans="1:6">
       <c r="A59" s="12">
         <f>A58+1</f>
         <v>2</v>
       </c>
-      <c r="B59" s="12"/>
-      <c r="C59" s="12"/>
-      <c r="D59" s="12"/>
-      <c r="E59" s="12"/>
-      <c r="F59" s="12"/>
+      <c r="B59" s="12">
+        <v>63</v>
+      </c>
+      <c r="C59" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D59" s="12">
+        <v>16</v>
+      </c>
+      <c r="E59" s="12">
+        <v>8</v>
+      </c>
+      <c r="F59" s="12" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="60" spans="1:6">
       <c r="A60" s="12">
         <v>3</v>
       </c>
-      <c r="B60" s="12"/>
-      <c r="C60" s="12"/>
-      <c r="D60" s="12"/>
-      <c r="E60" s="12"/>
-      <c r="F60" s="12"/>
+      <c r="B60" s="12">
+        <v>465</v>
+      </c>
+      <c r="C60" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D60" s="12">
+        <v>18</v>
+      </c>
+      <c r="E60" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="F60" s="12" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="61" spans="1:6">
       <c r="A61" s="12">
         <v>4</v>
       </c>
-      <c r="B61" s="12"/>
-      <c r="C61" s="12"/>
-      <c r="D61" s="12"/>
-      <c r="E61" s="12"/>
-      <c r="F61" s="12"/>
+      <c r="B61" s="12">
+        <v>112</v>
+      </c>
+      <c r="C61" s="12">
+        <v>16</v>
+      </c>
+      <c r="D61" s="12">
+        <v>15</v>
+      </c>
+      <c r="E61" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="F61" s="12" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="62" spans="1:6">
       <c r="A62" s="12">
         <v>5</v>
       </c>
-      <c r="B62" s="12"/>
-      <c r="C62" s="12"/>
-      <c r="D62" s="12"/>
-      <c r="E62" s="12"/>
-      <c r="F62" s="12"/>
+      <c r="B62" s="12">
+        <v>304</v>
+      </c>
+      <c r="C62" s="12">
+        <v>22</v>
+      </c>
+      <c r="D62" s="12">
+        <v>15</v>
+      </c>
+      <c r="E62" s="12">
+        <v>11</v>
+      </c>
+      <c r="F62" s="12" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="63" spans="1:6">
       <c r="A63" s="12">
         <v>6</v>
       </c>
-      <c r="B63" s="12"/>
-      <c r="C63" s="12"/>
-      <c r="D63" s="12"/>
-      <c r="E63" s="12"/>
-      <c r="F63" s="12"/>
+      <c r="B63" s="12">
+        <v>136</v>
+      </c>
+      <c r="C63" s="12">
+        <v>17</v>
+      </c>
+      <c r="D63" s="12">
+        <v>9</v>
+      </c>
+      <c r="E63" s="12">
+        <v>26</v>
+      </c>
+      <c r="F63" s="12">
+        <v>723</v>
+      </c>
     </row>
     <row r="64" spans="1:6">
       <c r="A64" s="12">
         <v>7</v>
       </c>
-      <c r="B64" s="12"/>
-      <c r="C64" s="12"/>
-      <c r="D64" s="12"/>
-      <c r="E64" s="12"/>
-      <c r="F64" s="12"/>
+      <c r="B64" s="12">
+        <v>54</v>
+      </c>
+      <c r="C64" s="12">
+        <v>28</v>
+      </c>
+      <c r="D64" s="12">
+        <v>8</v>
+      </c>
+      <c r="E64" s="12">
+        <v>6</v>
+      </c>
+      <c r="F64" s="12" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="65" spans="1:6">
       <c r="A65" s="12">
         <v>8</v>
       </c>
-      <c r="B65" s="12"/>
-      <c r="C65" s="12"/>
-      <c r="D65" s="12"/>
-      <c r="E65" s="12"/>
-      <c r="F65" s="12"/>
+      <c r="B65" s="12">
+        <v>62</v>
+      </c>
+      <c r="C65" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D65" s="12">
+        <v>14</v>
+      </c>
+      <c r="E65" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="F65" s="12" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="66" spans="1:6">
       <c r="A66" s="12">
         <v>9</v>
       </c>
-      <c r="B66" s="12"/>
-      <c r="C66" s="12"/>
-      <c r="D66" s="12"/>
-      <c r="E66" s="12"/>
-      <c r="F66" s="12"/>
+      <c r="B66" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C66" s="12">
+        <v>10</v>
+      </c>
+      <c r="D66" s="12">
+        <v>12</v>
+      </c>
+      <c r="E66" s="12">
+        <v>14</v>
+      </c>
+      <c r="F66" s="12" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="67" spans="1:6" ht="15" thickBot="1">
       <c r="A67" s="11">
         <v>10</v>
       </c>
-      <c r="B67" s="11"/>
-      <c r="C67" s="11"/>
-      <c r="D67" s="11"/>
-      <c r="E67" s="11"/>
-      <c r="F67" s="11"/>
+      <c r="B67" s="11">
+        <v>54</v>
+      </c>
+      <c r="C67" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D67" s="11">
+        <v>11</v>
+      </c>
+      <c r="E67" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="F67" s="11" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="68" spans="1:6" ht="15" thickBot="1">
       <c r="A68" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B68" s="6" t="e">
+      <c r="B68" s="6">
         <f>AVERAGE(B58:B67)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C68" s="6" t="e">
+        <v>152.88888888888889</v>
+      </c>
+      <c r="C68" s="6">
         <f>AVERAGE(C58:C67)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D68" s="6" t="e">
+        <v>18.166666666666668</v>
+      </c>
+      <c r="D68" s="6">
         <f t="shared" ref="D68" si="5">AVERAGE(D58:D67)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E68" s="6" t="e">
+        <v>12.6</v>
+      </c>
+      <c r="E68" s="6">
         <f t="shared" ref="E68" si="6">AVERAGE(E58:E67)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F68" s="13" t="e">
+        <v>19.166666666666668</v>
+      </c>
+      <c r="F68" s="13">
         <f t="shared" ref="F68" si="7">AVERAGE(F58:F67)</f>
-        <v>#DIV/0!</v>
+        <v>723</v>
       </c>
     </row>
     <row r="71" spans="1:6">
